--- a/pred_ohlcv/54_21/2020-01-22 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 CON ohlcv.xlsx
@@ -2108,7 +2108,7 @@
         <v>-4287813.6723</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-4737909.3579</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-4559289.9259</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4629376.0259</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4544301.238899999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5170469.017600001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5132422.277600001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-5054326.337600001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4165549.5566</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4100706.7526</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4139418.309599999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-4249553.609599999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-8621623.155016266</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-9127186.474416265</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-9233717.346416265</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-9189262.734416265</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-9279373.434416264</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-9233316.854416264</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-8529019.000616264</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-8783045.690159498</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 CON ohlcv.xlsx
@@ -2108,7 +2108,7 @@
         <v>-4287813.6723</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-4578513.541900001</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-4663818.337900001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4629376.0259</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-4452215.886899999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4544301.238899999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-5170469.017600001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-5132422.277600001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-5054326.337600001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-4349389.486100003</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-4225108.809100001</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-4165549.5566</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-4100706.7526</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-4139418.309599999</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-4249553.609599999</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-4391453.220899999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-8573245.960116263</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-8618501.556116264</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-8745654.825016264</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-8637922.477016265</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-8738445.969016265</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-8621623.155016266</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-8621623.155016266</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-9127186.474416265</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-9233717.346416265</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-9233717.346416265</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-9189262.734416265</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-9279373.434416264</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-9233316.854416264</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-6967975.261116266</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-6929948.722616265</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-7033676.150616265</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-7028069.262616266</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-7133398.658616265</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-7029689.766516265</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-7164004.577016265</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-7132365.709016265</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-7290960.541016266</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-7291276.480316265</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-7348947.328316266</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-7431849.172316265</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-6625076.171890462</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-6534965.471890462</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-6646674.502490461</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-6655485.326490461</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-6496794.376490461</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-6603725.740490461</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-6382989.809290459</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-6453075.909290459</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-6452479.405290459</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-6531953.173990459</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-6473080.849990459</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-6473080.849990459</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-6565230.06469046</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-6565230.06469046</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-6568231.81729046</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-6568231.81729046</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-5884384.477894614</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-5930441.057894614</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-5853146.101894613</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-5812696.409894614</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-5900246.638894614</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-5823752.666894614</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-5792514.290894614</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-8783045.690159498</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
